--- a/disp.xlsx
+++ b/disp.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\coding\RIP-Peak\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="0" windowWidth="2175" windowHeight="1110"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -246,19 +251,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -266,8 +271,24 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -299,44 +320,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -378,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,9 +458,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,6 +493,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,61 +669,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="9.140625" style="15"/>
-    <col min="5" max="6" width="9.140625" style="16"/>
-    <col min="7" max="7" width="9.140625" style="17"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="3"/>
+    <col min="4" max="4" width="9.125" style="15"/>
+    <col min="5" max="6" width="9.125" style="16"/>
+    <col min="7" max="7" width="9.125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>120</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>180</v>
       </c>
@@ -681,49 +733,53 @@
       <c r="P4" s="3"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>240</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>300</v>
       </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
     </row>
   </sheetData>
   <sortState ref="A2:G6">
     <sortCondition ref="A1"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="4" max="19" width="3.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="4" max="19" width="3.25" customWidth="1"/>
+    <col min="20" max="20" width="15.625" customWidth="1"/>
+    <col min="21" max="21" width="16.875" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
     <col min="24" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -911,7 +967,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="AM2" s="21"/>
       <c r="AN2" s="21"/>
       <c r="AT2" s="21"/>
@@ -919,7 +975,7 @@
       <c r="BH2" s="19"/>
       <c r="BI2" s="20"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="AM3" s="21"/>
       <c r="AN3" s="21"/>
       <c r="AT3" s="21"/>
@@ -927,7 +983,7 @@
       <c r="BH3" s="19"/>
       <c r="BI3" s="20"/>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AT4" s="21"/>
@@ -935,7 +991,7 @@
       <c r="BH4" s="19"/>
       <c r="BI4" s="20"/>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
       <c r="AT5" s="21"/>
@@ -943,7 +999,7 @@
       <c r="BH5" s="19"/>
       <c r="BI5" s="20"/>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="AM6" s="21"/>
       <c r="AN6" s="21"/>
       <c r="AT6" s="21"/>
@@ -952,32 +1008,33 @@
       <c r="BI6" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="4"/>
+    <col min="1" max="4" width="9.125" style="4"/>
     <col min="5" max="5" width="10" style="4" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="6" max="10" width="9.125" style="4"/>
+    <col min="11" max="11" width="9.125" style="5"/>
     <col min="12" max="12" width="12" style="6" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="6"/>
-    <col min="15" max="15" width="9.140625" style="7"/>
-    <col min="16" max="16" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="13" max="14" width="9.125" style="6"/>
+    <col min="15" max="15" width="9.125" style="7"/>
+    <col min="16" max="16" width="9.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" ht="21">
+    <row r="1" spans="1:18" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C2" s="9"/>
       <c r="E2" s="9"/>
       <c r="G2" s="9"/>
@@ -1068,7 +1125,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C3" s="9"/>
       <c r="E3" s="9"/>
       <c r="G3" s="9"/>
@@ -1106,7 +1163,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C4" s="9"/>
       <c r="E4" s="9"/>
       <c r="G4" s="9"/>
@@ -1144,7 +1201,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C5" s="9"/>
       <c r="E5" s="9"/>
       <c r="K5" s="5">
@@ -1180,7 +1237,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C6" s="9"/>
       <c r="E6" s="9"/>
       <c r="G6" s="9"/>
@@ -1218,7 +1275,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C7" s="9"/>
       <c r="E7" s="9"/>
       <c r="G7" s="9"/>
@@ -1256,7 +1313,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="9"/>
@@ -1294,7 +1351,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="9"/>
@@ -1332,7 +1389,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="9"/>
@@ -1370,7 +1427,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="9"/>
@@ -1408,7 +1465,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C12" s="9"/>
       <c r="E12" s="9"/>
       <c r="G12" s="9"/>
@@ -1446,7 +1503,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="9"/>
       <c r="E13" s="9"/>
       <c r="G13" s="9"/>
@@ -1484,7 +1541,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C14" s="9"/>
       <c r="E14" s="9"/>
       <c r="G14" s="9"/>
@@ -1522,7 +1579,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="9"/>
       <c r="E15" s="9"/>
       <c r="G15" s="9"/>
@@ -1560,7 +1617,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K16" s="5">
         <f>B16-C16</f>
         <v>0</v>
@@ -1594,7 +1651,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C17" s="9"/>
       <c r="E17" s="9"/>
       <c r="G17" s="9"/>
@@ -1632,7 +1689,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C18" s="9"/>
       <c r="E18" s="9"/>
       <c r="G18" s="9"/>
@@ -1670,7 +1727,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C19" s="9"/>
       <c r="E19" s="9"/>
       <c r="G19" s="9"/>
@@ -1708,7 +1765,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
       <c r="E20" s="9"/>
       <c r="G20" s="9"/>
@@ -1746,7 +1803,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="21" spans="3:18">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="9"/>
@@ -1784,7 +1841,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="22" spans="3:18">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C22" s="9"/>
       <c r="E22" s="9"/>
       <c r="G22" s="9"/>
@@ -1822,7 +1879,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="23" spans="3:18">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C23" s="9"/>
       <c r="E23" s="9"/>
       <c r="G23" s="9"/>
@@ -1860,7 +1917,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="24" spans="3:18">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C24" s="9"/>
       <c r="E24" s="9"/>
       <c r="G24" s="9"/>
@@ -1898,7 +1955,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="25" spans="3:18">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C25" s="9"/>
       <c r="E25" s="9"/>
       <c r="G25" s="9"/>
@@ -1936,7 +1993,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C26" s="9"/>
       <c r="E26" s="9"/>
       <c r="G26" s="9"/>
@@ -1974,7 +2031,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="27" spans="3:18">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C27" s="9"/>
       <c r="E27" s="9"/>
       <c r="G27" s="9"/>
@@ -2012,7 +2069,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="28" spans="3:18">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.15">
       <c r="K28" s="5">
         <f>B28-C28</f>
         <v>0</v>
@@ -2046,7 +2103,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="29" spans="3:18">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C29" s="9"/>
       <c r="E29" s="9"/>
       <c r="G29" s="9"/>
@@ -2084,7 +2141,7 @@
         <v>1.45702</v>
       </c>
     </row>
-    <row r="30" spans="3:18">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C30" s="9"/>
       <c r="E30" s="9"/>
       <c r="G30" s="9"/>
@@ -2123,7 +2180,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>